--- a/biology/Zoologie/Éristale_de_Gates/Éristale_de_Gates.xlsx
+++ b/biology/Zoologie/Éristale_de_Gates/Éristale_de_Gates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ristale_de_Gates</t>
+          <t>Éristale_de_Gates</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eristalis gatesi
 L'éristale de Gates (Eristalis gatesi) est une espèce d'insectes diptères brachycères de la famille des Syrphidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ristale_de_Gates</t>
+          <t>Éristale_de_Gates</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de la forêt costaricaine.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ristale_de_Gates</t>
+          <t>Éristale_de_Gates</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, gatesi, lui a été donné en l'honneur de Bill Gates, cofondateur de la société Microsoft en reconnaissance de sa contribution dans la « révolution PC ».
 Un autre insecte a été nommé en l'honneur de Paul Allen, l'associé de Bill Gates, l'éristale d'Allen (Eristalis alleni).
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89ristale_de_Gates</t>
+          <t>Éristale_de_Gates</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Thompson, 1997 : « Revision of the Eristalis Flower Flies (Diptera: Surphidae) of the Americas South of the United States », Proceedings of the Entomological Society of Washington vol. 99, n. 2, p. 209-237 (texte intégral).</t>
         </is>
